--- a/backend/src/excel_handler/files/CELU.xlsx
+++ b/backend/src/excel_handler/files/CELU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>127178.81</v>
+        <v>128846.96</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42392.94</v>
+        <v>32211.74</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58441.29</v>
+        <v>57375.48</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26194.12</v>
+        <v>26937.05</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42543.4</v>
+        <v>41045.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta acciones</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3488.68</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CELU.xlsx
+++ b/backend/src/excel_handler/files/CELU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,65 +439,88 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>128846.96</v>
+        <v>57375.48</v>
+      </c>
+      <c r="C2" t="n">
+        <v>57248.24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32211.74</v>
+        <v>3488.68</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3495.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57375.48</v>
+        <v>26937.05</v>
+      </c>
+      <c r="C4" t="n">
+        <v>27544.64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26937.05</v>
+        <v>41045.75</v>
+      </c>
+      <c r="C5" t="n">
+        <v>41469.66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41045.75</v>
+        <v>32211.74</v>
+      </c>
+      <c r="C6" t="n">
+        <v>32439.46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3488.68</v>
+        <v>128846.96</v>
+      </c>
+      <c r="C7" t="n">
+        <v>129757.84</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CELU.xlsx
+++ b/backend/src/excel_handler/files/CELU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,75 +439,101 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135020.14</v>
+        <v>57248.24</v>
+      </c>
+      <c r="C2" t="n">
+        <v>58970.63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Mercosur</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27004.03</v>
+        <v>5262.3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5448.26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57248.24</v>
+        <v>3495.3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3506.39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mercosur</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5262.3</v>
+        <v>27544.64</v>
+      </c>
+      <c r="C5" t="n">
+        <v>24413.85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3495.3</v>
+        <v>41469.66</v>
+      </c>
+      <c r="C6" t="n">
+        <v>41245.14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27544.64</v>
+        <v>27004.03</v>
+      </c>
+      <c r="C7" t="n">
+        <v>26716.85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41469.66</v>
+        <v>135020.14</v>
+      </c>
+      <c r="C8" t="n">
+        <v>133584.27</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CELU.xlsx
+++ b/backend/src/excel_handler/files/CELU.xlsx
@@ -493,9 +493,7 @@
       <c r="B5" t="n">
         <v>27544.64</v>
       </c>
-      <c r="C5" t="n">
-        <v>24413.85</v>
-      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -520,7 +518,7 @@
         <v>27004.03</v>
       </c>
       <c r="C7" t="n">
-        <v>26716.85</v>
+        <v>27292.6</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +531,7 @@
         <v>135020.14</v>
       </c>
       <c r="C8" t="n">
-        <v>133584.27</v>
+        <v>109170.42</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CELU.xlsx
+++ b/backend/src/excel_handler/files/CELU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57248.24</v>
+        <v>58975.94</v>
       </c>
       <c r="C2" t="n">
-        <v>58970.63</v>
+        <v>57242.15</v>
       </c>
       <c r="D2" t="n">
-        <v>58214.53</v>
+        <v>57806.58</v>
       </c>
       <c r="E2" t="n">
-        <v>58223.89</v>
+        <v>57671.58</v>
       </c>
       <c r="F2" t="n">
-        <v>58902.42</v>
+        <v>57523.04</v>
       </c>
       <c r="G2" t="n">
-        <v>59251.8</v>
-      </c>
-      <c r="H2" t="n">
-        <v>57282.74</v>
-      </c>
-      <c r="I2" t="n">
-        <v>57658.19</v>
-      </c>
-      <c r="J2" t="n">
-        <v>57147.92</v>
-      </c>
-      <c r="K2" t="n">
-        <v>58342.55</v>
-      </c>
-      <c r="L2" t="n">
-        <v>57197.19</v>
-      </c>
-      <c r="M2" t="n">
-        <v>58975.94</v>
+        <v>58782.83</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5262.3</v>
+        <v>4861.48</v>
       </c>
       <c r="C3" t="n">
-        <v>5448.26</v>
+        <v>5524.61</v>
       </c>
       <c r="D3" t="n">
-        <v>5243.97</v>
+        <v>4479.92</v>
       </c>
       <c r="E3" t="n">
-        <v>4607.07</v>
+        <v>5292.66</v>
       </c>
       <c r="F3" t="n">
-        <v>4974.5</v>
+        <v>5551.38</v>
       </c>
       <c r="G3" t="n">
-        <v>4481.27</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5354.31</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5505.9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4471.02</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5433.03</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5248.37</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4861.48</v>
+        <v>4759.69</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3495.3</v>
+        <v>3503.01</v>
       </c>
       <c r="C4" t="n">
-        <v>3506.39</v>
+        <v>3508.38</v>
       </c>
       <c r="D4" t="n">
-        <v>3507.38</v>
+        <v>3458.79</v>
       </c>
       <c r="E4" t="n">
-        <v>3493.72</v>
+        <v>3496.54</v>
       </c>
       <c r="F4" t="n">
-        <v>3493.87</v>
+        <v>3496.74</v>
       </c>
       <c r="G4" t="n">
-        <v>3495.88</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3500.88</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3495.01</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3494.8</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3505.24</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3500.22</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3503.01</v>
+        <v>3500.37</v>
       </c>
     </row>
     <row r="5">
@@ -631,38 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27544.64</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>25260.82</v>
+      </c>
+      <c r="C5" t="n">
+        <v>26128.64</v>
+      </c>
       <c r="D5" t="n">
-        <v>25222.24</v>
+        <v>26752.35</v>
       </c>
       <c r="E5" t="n">
-        <v>26915.16</v>
+        <v>24727.22</v>
       </c>
       <c r="F5" t="n">
-        <v>25469.39</v>
+        <v>24919.26</v>
       </c>
       <c r="G5" t="n">
-        <v>25958.43</v>
-      </c>
-      <c r="H5" t="n">
-        <v>27109.14</v>
-      </c>
-      <c r="I5" t="n">
-        <v>27289.89</v>
-      </c>
-      <c r="J5" t="n">
-        <v>26908.17</v>
-      </c>
-      <c r="K5" t="n">
-        <v>25243.5</v>
-      </c>
-      <c r="L5" t="n">
-        <v>26288.73</v>
-      </c>
-      <c r="M5" t="n">
-        <v>25260.82</v>
+        <v>27222.64</v>
       </c>
     </row>
     <row r="6">
@@ -672,40 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41469.66</v>
+        <v>40978.55</v>
       </c>
       <c r="C6" t="n">
-        <v>41245.14</v>
+        <v>41297.99</v>
       </c>
       <c r="D6" t="n">
-        <v>41362.59</v>
+        <v>40326.54</v>
       </c>
       <c r="E6" t="n">
-        <v>41855.57</v>
+        <v>41738.89</v>
       </c>
       <c r="F6" t="n">
-        <v>41086.89</v>
+        <v>41193.3</v>
       </c>
       <c r="G6" t="n">
-        <v>41492.12</v>
-      </c>
-      <c r="H6" t="n">
-        <v>42003.93</v>
-      </c>
-      <c r="I6" t="n">
-        <v>41420.44</v>
-      </c>
-      <c r="J6" t="n">
-        <v>42106.67</v>
-      </c>
-      <c r="K6" t="n">
-        <v>41817.47</v>
-      </c>
-      <c r="L6" t="n">
-        <v>41650.37</v>
-      </c>
-      <c r="M6" t="n">
-        <v>40978.55</v>
+        <v>41572.11</v>
       </c>
     </row>
     <row r="7">
@@ -715,40 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27004.03</v>
+        <v>26715.96</v>
       </c>
       <c r="C7" t="n">
-        <v>27292.6</v>
+        <v>26740.35</v>
       </c>
       <c r="D7" t="n">
-        <v>26710.14</v>
+        <v>26564.84</v>
       </c>
       <c r="E7" t="n">
-        <v>27019.08</v>
+        <v>26585.38</v>
       </c>
       <c r="F7" t="n">
-        <v>26785.41</v>
+        <v>26536.74</v>
       </c>
       <c r="G7" t="n">
-        <v>26935.9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>27050.2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>27073.89</v>
-      </c>
-      <c r="J7" t="n">
-        <v>26825.72</v>
-      </c>
-      <c r="K7" t="n">
-        <v>26868.36</v>
-      </c>
-      <c r="L7" t="n">
-        <v>26776.98</v>
-      </c>
-      <c r="M7" t="n">
-        <v>26715.96</v>
+        <v>27167.53</v>
       </c>
     </row>
     <row r="8">
@@ -758,40 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>135020.14</v>
+        <v>133579.8</v>
       </c>
       <c r="C8" t="n">
-        <v>109170.42</v>
+        <v>133701.77</v>
       </c>
       <c r="D8" t="n">
-        <v>133550.71</v>
+        <v>132824.18</v>
       </c>
       <c r="E8" t="n">
-        <v>135095.41</v>
+        <v>132926.89</v>
       </c>
       <c r="F8" t="n">
-        <v>133927.07</v>
+        <v>132683.72</v>
       </c>
       <c r="G8" t="n">
-        <v>134679.5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>135251</v>
-      </c>
-      <c r="I8" t="n">
-        <v>135369.43</v>
-      </c>
-      <c r="J8" t="n">
-        <v>134128.58</v>
-      </c>
-      <c r="K8" t="n">
-        <v>134341.79</v>
-      </c>
-      <c r="L8" t="n">
-        <v>133884.88</v>
-      </c>
-      <c r="M8" t="n">
-        <v>133579.8</v>
+        <v>135837.64</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CELU.xlsx
+++ b/backend/src/excel_handler/files/CELU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>57248.24</v>
+      </c>
+      <c r="C2" t="n">
+        <v>58970.63</v>
+      </c>
+      <c r="D2" t="n">
+        <v>58214.53</v>
+      </c>
+      <c r="E2" t="n">
+        <v>58223.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>58902.42</v>
+      </c>
+      <c r="G2" t="n">
+        <v>59251.8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>57282.74</v>
+      </c>
+      <c r="I2" t="n">
+        <v>57658.19</v>
+      </c>
+      <c r="J2" t="n">
+        <v>57147.92</v>
+      </c>
+      <c r="K2" t="n">
+        <v>58342.55</v>
+      </c>
+      <c r="L2" t="n">
+        <v>57197.19</v>
+      </c>
+      <c r="M2" t="n">
         <v>58975.94</v>
-      </c>
-      <c r="C2" t="n">
-        <v>57242.15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>57806.58</v>
-      </c>
-      <c r="E2" t="n">
-        <v>57671.58</v>
-      </c>
-      <c r="F2" t="n">
-        <v>57523.04</v>
-      </c>
-      <c r="G2" t="n">
-        <v>58782.83</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>5262.3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5448.26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5243.97</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4607.07</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4974.5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4481.27</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5354.31</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5505.9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4471.02</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5433.03</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5248.37</v>
+      </c>
+      <c r="M3" t="n">
         <v>4861.48</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5524.61</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4479.92</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5292.66</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5551.38</v>
-      </c>
-      <c r="G3" t="n">
-        <v>4759.69</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>3495.3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3506.39</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3507.38</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3493.72</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3493.87</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3495.88</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3500.88</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3495.01</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3494.8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3505.24</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3500.22</v>
+      </c>
+      <c r="M4" t="n">
         <v>3503.01</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3508.38</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3458.79</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3496.54</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3496.74</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3500.37</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +631,38 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>27544.64</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>25222.24</v>
+      </c>
+      <c r="E5" t="n">
+        <v>26915.16</v>
+      </c>
+      <c r="F5" t="n">
+        <v>25469.39</v>
+      </c>
+      <c r="G5" t="n">
+        <v>25958.43</v>
+      </c>
+      <c r="H5" t="n">
+        <v>27109.14</v>
+      </c>
+      <c r="I5" t="n">
+        <v>27289.89</v>
+      </c>
+      <c r="J5" t="n">
+        <v>26908.17</v>
+      </c>
+      <c r="K5" t="n">
+        <v>25243.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>26288.73</v>
+      </c>
+      <c r="M5" t="n">
         <v>25260.82</v>
-      </c>
-      <c r="C5" t="n">
-        <v>26128.64</v>
-      </c>
-      <c r="D5" t="n">
-        <v>26752.35</v>
-      </c>
-      <c r="E5" t="n">
-        <v>24727.22</v>
-      </c>
-      <c r="F5" t="n">
-        <v>24919.26</v>
-      </c>
-      <c r="G5" t="n">
-        <v>27222.64</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +672,40 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>41469.66</v>
+      </c>
+      <c r="C6" t="n">
+        <v>41245.14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>41362.59</v>
+      </c>
+      <c r="E6" t="n">
+        <v>41855.57</v>
+      </c>
+      <c r="F6" t="n">
+        <v>41086.89</v>
+      </c>
+      <c r="G6" t="n">
+        <v>41492.12</v>
+      </c>
+      <c r="H6" t="n">
+        <v>42003.93</v>
+      </c>
+      <c r="I6" t="n">
+        <v>41420.44</v>
+      </c>
+      <c r="J6" t="n">
+        <v>42106.67</v>
+      </c>
+      <c r="K6" t="n">
+        <v>41817.47</v>
+      </c>
+      <c r="L6" t="n">
+        <v>41650.37</v>
+      </c>
+      <c r="M6" t="n">
         <v>40978.55</v>
-      </c>
-      <c r="C6" t="n">
-        <v>41297.99</v>
-      </c>
-      <c r="D6" t="n">
-        <v>40326.54</v>
-      </c>
-      <c r="E6" t="n">
-        <v>41738.89</v>
-      </c>
-      <c r="F6" t="n">
-        <v>41193.3</v>
-      </c>
-      <c r="G6" t="n">
-        <v>41572.11</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +715,40 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>27004.03</v>
+      </c>
+      <c r="C7" t="n">
+        <v>27292.6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>26710.14</v>
+      </c>
+      <c r="E7" t="n">
+        <v>27019.08</v>
+      </c>
+      <c r="F7" t="n">
+        <v>26785.41</v>
+      </c>
+      <c r="G7" t="n">
+        <v>26935.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>27050.2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>27073.89</v>
+      </c>
+      <c r="J7" t="n">
+        <v>26825.72</v>
+      </c>
+      <c r="K7" t="n">
+        <v>26868.36</v>
+      </c>
+      <c r="L7" t="n">
+        <v>26776.98</v>
+      </c>
+      <c r="M7" t="n">
         <v>26715.96</v>
-      </c>
-      <c r="C7" t="n">
-        <v>26740.35</v>
-      </c>
-      <c r="D7" t="n">
-        <v>26564.84</v>
-      </c>
-      <c r="E7" t="n">
-        <v>26585.38</v>
-      </c>
-      <c r="F7" t="n">
-        <v>26536.74</v>
-      </c>
-      <c r="G7" t="n">
-        <v>27167.53</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +758,40 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>135020.14</v>
+      </c>
+      <c r="C8" t="n">
+        <v>109170.42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>133550.71</v>
+      </c>
+      <c r="E8" t="n">
+        <v>135095.41</v>
+      </c>
+      <c r="F8" t="n">
+        <v>133927.07</v>
+      </c>
+      <c r="G8" t="n">
+        <v>134679.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>135251</v>
+      </c>
+      <c r="I8" t="n">
+        <v>135369.43</v>
+      </c>
+      <c r="J8" t="n">
+        <v>134128.58</v>
+      </c>
+      <c r="K8" t="n">
+        <v>134341.79</v>
+      </c>
+      <c r="L8" t="n">
+        <v>133884.88</v>
+      </c>
+      <c r="M8" t="n">
         <v>133579.8</v>
-      </c>
-      <c r="C8" t="n">
-        <v>133701.77</v>
-      </c>
-      <c r="D8" t="n">
-        <v>132824.18</v>
-      </c>
-      <c r="E8" t="n">
-        <v>132926.89</v>
-      </c>
-      <c r="F8" t="n">
-        <v>132683.72</v>
-      </c>
-      <c r="G8" t="n">
-        <v>135837.64</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CELU.xlsx
+++ b/backend/src/excel_handler/files/CELU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +572,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57248.24</v>
+        <v>58975.94</v>
       </c>
       <c r="C2" t="n">
-        <v>58970.63</v>
+        <v>57242.15</v>
       </c>
       <c r="D2" t="n">
-        <v>58214.53</v>
+        <v>57806.58</v>
       </c>
       <c r="E2" t="n">
-        <v>58223.89</v>
+        <v>57671.58</v>
       </c>
       <c r="F2" t="n">
-        <v>58902.42</v>
+        <v>57523.04</v>
       </c>
       <c r="G2" t="n">
-        <v>59251.8</v>
+        <v>58782.83</v>
       </c>
       <c r="H2" t="n">
-        <v>57282.74</v>
+        <v>58084.85</v>
       </c>
       <c r="I2" t="n">
-        <v>57658.19</v>
+        <v>57174.98</v>
       </c>
       <c r="J2" t="n">
-        <v>57147.92</v>
+        <v>57136.26</v>
       </c>
       <c r="K2" t="n">
-        <v>58342.55</v>
+        <v>57301.58</v>
       </c>
       <c r="L2" t="n">
-        <v>57197.19</v>
+        <v>58517.27</v>
       </c>
       <c r="M2" t="n">
-        <v>58975.94</v>
+        <v>57145.09</v>
+      </c>
+      <c r="N2" t="n">
+        <v>57478.23</v>
+      </c>
+      <c r="O2" t="n">
+        <v>56770.9</v>
+      </c>
+      <c r="P2" t="n">
+        <v>58573.95</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>58130.1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>57376.66</v>
+      </c>
+      <c r="S2" t="n">
+        <v>58141.37</v>
+      </c>
+      <c r="T2" t="n">
+        <v>58868.36</v>
+      </c>
+      <c r="U2" t="n">
+        <v>57951.23</v>
+      </c>
+      <c r="V2" t="n">
+        <v>58505.76</v>
+      </c>
+      <c r="W2" t="n">
+        <v>57528.38</v>
+      </c>
+      <c r="X2" t="n">
+        <v>57214.65</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>57903.7</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>58751.63</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>58046.76</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +657,82 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5262.3</v>
+        <v>4861.48</v>
       </c>
       <c r="C3" t="n">
-        <v>5448.26</v>
+        <v>5524.61</v>
       </c>
       <c r="D3" t="n">
-        <v>5243.97</v>
+        <v>4479.92</v>
       </c>
       <c r="E3" t="n">
-        <v>4607.07</v>
+        <v>5292.66</v>
       </c>
       <c r="F3" t="n">
-        <v>4974.5</v>
+        <v>5551.38</v>
       </c>
       <c r="G3" t="n">
-        <v>4481.27</v>
+        <v>4759.69</v>
       </c>
       <c r="H3" t="n">
-        <v>5354.31</v>
+        <v>4618.79</v>
       </c>
       <c r="I3" t="n">
-        <v>5505.9</v>
+        <v>4576.15</v>
       </c>
       <c r="J3" t="n">
-        <v>4471.02</v>
+        <v>5269.58</v>
       </c>
       <c r="K3" t="n">
-        <v>5433.03</v>
+        <v>5547.06</v>
       </c>
       <c r="L3" t="n">
-        <v>5248.37</v>
+        <v>4517.08</v>
       </c>
       <c r="M3" t="n">
-        <v>4861.48</v>
+        <v>5123.23</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5672.63</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5714.01</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5097.14</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5135.34</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4304.98</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4464.6</v>
+      </c>
+      <c r="T3" t="n">
+        <v>5686.53</v>
+      </c>
+      <c r="U3" t="n">
+        <v>5517.03</v>
+      </c>
+      <c r="V3" t="n">
+        <v>5316.15</v>
+      </c>
+      <c r="W3" t="n">
+        <v>4482.38</v>
+      </c>
+      <c r="X3" t="n">
+        <v>5529.7</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>5309.49</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>5477.89</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>4951.59</v>
       </c>
     </row>
     <row r="4">
@@ -588,41 +742,61 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3495.3</v>
+        <v>3503.01</v>
       </c>
       <c r="C4" t="n">
-        <v>3506.39</v>
+        <v>3508.38</v>
       </c>
       <c r="D4" t="n">
-        <v>3507.38</v>
+        <v>3458.79</v>
       </c>
       <c r="E4" t="n">
-        <v>3493.72</v>
+        <v>3496.54</v>
       </c>
       <c r="F4" t="n">
-        <v>3493.87</v>
+        <v>3496.74</v>
       </c>
       <c r="G4" t="n">
-        <v>3495.88</v>
+        <v>3500.37</v>
       </c>
       <c r="H4" t="n">
-        <v>3500.88</v>
+        <v>3508.12</v>
       </c>
       <c r="I4" t="n">
-        <v>3495.01</v>
+        <v>3498.85</v>
       </c>
       <c r="J4" t="n">
-        <v>3494.8</v>
+        <v>3493.63</v>
       </c>
       <c r="K4" t="n">
-        <v>3505.24</v>
+        <v>3500.47</v>
       </c>
       <c r="L4" t="n">
-        <v>3500.22</v>
+        <v>3492.09</v>
       </c>
       <c r="M4" t="n">
-        <v>3503.01</v>
-      </c>
+        <v>3502.3</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3503.88</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3494.38</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3496.03</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -631,38 +805,82 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27544.64</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>25260.82</v>
+      </c>
+      <c r="C5" t="n">
+        <v>26128.64</v>
+      </c>
       <c r="D5" t="n">
-        <v>25222.24</v>
+        <v>26752.35</v>
       </c>
       <c r="E5" t="n">
-        <v>26915.16</v>
+        <v>24727.22</v>
       </c>
       <c r="F5" t="n">
-        <v>25469.39</v>
+        <v>24919.26</v>
       </c>
       <c r="G5" t="n">
-        <v>25958.43</v>
+        <v>27222.64</v>
       </c>
       <c r="H5" t="n">
-        <v>27109.14</v>
+        <v>26632.46</v>
       </c>
       <c r="I5" t="n">
-        <v>27289.89</v>
+        <v>27305.51</v>
       </c>
       <c r="J5" t="n">
-        <v>26908.17</v>
+        <v>27446.97</v>
       </c>
       <c r="K5" t="n">
-        <v>25243.5</v>
+        <v>26009.37</v>
       </c>
       <c r="L5" t="n">
-        <v>26288.73</v>
+        <v>27484.08</v>
       </c>
       <c r="M5" t="n">
-        <v>25260.82</v>
+        <v>23947.72</v>
+      </c>
+      <c r="N5" t="n">
+        <v>25879.35</v>
+      </c>
+      <c r="O5" t="n">
+        <v>26617.51</v>
+      </c>
+      <c r="P5" t="n">
+        <v>24529.16</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>25403.7</v>
+      </c>
+      <c r="R5" t="n">
+        <v>23919.41</v>
+      </c>
+      <c r="S5" t="n">
+        <v>24402.67</v>
+      </c>
+      <c r="T5" t="n">
+        <v>23722.54</v>
+      </c>
+      <c r="U5" t="n">
+        <v>27407.34</v>
+      </c>
+      <c r="V5" t="n">
+        <v>23877.23</v>
+      </c>
+      <c r="W5" t="n">
+        <v>26428.71</v>
+      </c>
+      <c r="X5" t="n">
+        <v>25151.35</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>26441.68</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>24546.52</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>25643.12</v>
       </c>
     </row>
     <row r="6">
@@ -672,40 +890,82 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41469.66</v>
+        <v>40978.55</v>
       </c>
       <c r="C6" t="n">
-        <v>41245.14</v>
+        <v>41297.99</v>
       </c>
       <c r="D6" t="n">
-        <v>41362.59</v>
+        <v>40326.54</v>
       </c>
       <c r="E6" t="n">
-        <v>41855.57</v>
+        <v>41738.89</v>
       </c>
       <c r="F6" t="n">
-        <v>41086.89</v>
+        <v>41193.3</v>
       </c>
       <c r="G6" t="n">
-        <v>41492.12</v>
+        <v>41572.11</v>
       </c>
       <c r="H6" t="n">
-        <v>42003.93</v>
+        <v>41278.8</v>
       </c>
       <c r="I6" t="n">
-        <v>41420.44</v>
+        <v>41463.05</v>
       </c>
       <c r="J6" t="n">
-        <v>42106.67</v>
+        <v>40850.76</v>
       </c>
       <c r="K6" t="n">
-        <v>41817.47</v>
+        <v>40788.99</v>
       </c>
       <c r="L6" t="n">
-        <v>41650.37</v>
+        <v>40824.88</v>
       </c>
       <c r="M6" t="n">
-        <v>40978.55</v>
+        <v>40717.12</v>
+      </c>
+      <c r="N6" t="n">
+        <v>41710.87</v>
+      </c>
+      <c r="O6" t="n">
+        <v>40422.98</v>
+      </c>
+      <c r="P6" t="n">
+        <v>41834.7</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>42497.85</v>
+      </c>
+      <c r="R6" t="n">
+        <v>40658</v>
+      </c>
+      <c r="S6" t="n">
+        <v>41121.94</v>
+      </c>
+      <c r="T6" t="n">
+        <v>40755.81</v>
+      </c>
+      <c r="U6" t="n">
+        <v>41741.09</v>
+      </c>
+      <c r="V6" t="n">
+        <v>42174.14</v>
+      </c>
+      <c r="W6" t="n">
+        <v>41509.92</v>
+      </c>
+      <c r="X6" t="n">
+        <v>42038.12</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>41701.31</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>42721.06</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>41995.74</v>
       </c>
     </row>
     <row r="7">
@@ -715,40 +975,82 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27004.03</v>
+        <v>26715.96</v>
       </c>
       <c r="C7" t="n">
-        <v>27292.6</v>
+        <v>26740.35</v>
       </c>
       <c r="D7" t="n">
-        <v>26710.14</v>
+        <v>26564.84</v>
       </c>
       <c r="E7" t="n">
-        <v>27019.08</v>
+        <v>26585.38</v>
       </c>
       <c r="F7" t="n">
-        <v>26785.41</v>
+        <v>26536.74</v>
       </c>
       <c r="G7" t="n">
-        <v>26935.9</v>
+        <v>27167.53</v>
       </c>
       <c r="H7" t="n">
-        <v>27050.2</v>
+        <v>26824.6</v>
       </c>
       <c r="I7" t="n">
-        <v>27073.89</v>
+        <v>26803.71</v>
       </c>
       <c r="J7" t="n">
-        <v>26825.72</v>
+        <v>26839.44</v>
       </c>
       <c r="K7" t="n">
-        <v>26868.36</v>
+        <v>26629.49</v>
       </c>
       <c r="L7" t="n">
-        <v>26776.98</v>
+        <v>26967.08</v>
       </c>
       <c r="M7" t="n">
-        <v>26715.96</v>
+        <v>26087.09</v>
+      </c>
+      <c r="N7" t="n">
+        <v>26848.99</v>
+      </c>
+      <c r="O7" t="n">
+        <v>26603.96</v>
+      </c>
+      <c r="P7" t="n">
+        <v>26706.2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>32791.75</v>
+      </c>
+      <c r="R7" t="n">
+        <v>31564.76</v>
+      </c>
+      <c r="S7" t="n">
+        <v>32032.65</v>
+      </c>
+      <c r="T7" t="n">
+        <v>32258.31</v>
+      </c>
+      <c r="U7" t="n">
+        <v>33154.17</v>
+      </c>
+      <c r="V7" t="n">
+        <v>32468.32</v>
+      </c>
+      <c r="W7" t="n">
+        <v>32487.35</v>
+      </c>
+      <c r="X7" t="n">
+        <v>32483.46</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>32839.04</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>32874.28</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>32659.3</v>
       </c>
     </row>
     <row r="8">
@@ -758,40 +1060,82 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>135020.14</v>
+        <v>133579.8</v>
       </c>
       <c r="C8" t="n">
-        <v>109170.42</v>
+        <v>133701.77</v>
       </c>
       <c r="D8" t="n">
-        <v>133550.71</v>
+        <v>132824.18</v>
       </c>
       <c r="E8" t="n">
-        <v>135095.41</v>
+        <v>132926.89</v>
       </c>
       <c r="F8" t="n">
-        <v>133927.07</v>
+        <v>132683.72</v>
       </c>
       <c r="G8" t="n">
-        <v>134679.5</v>
+        <v>135837.64</v>
       </c>
       <c r="H8" t="n">
-        <v>135251</v>
+        <v>134123.02</v>
       </c>
       <c r="I8" t="n">
-        <v>135369.43</v>
+        <v>134018.54</v>
       </c>
       <c r="J8" t="n">
-        <v>134128.58</v>
+        <v>134197.2</v>
       </c>
       <c r="K8" t="n">
-        <v>134341.79</v>
+        <v>133147.47</v>
       </c>
       <c r="L8" t="n">
-        <v>133884.88</v>
+        <v>134835.4</v>
       </c>
       <c r="M8" t="n">
-        <v>133579.8</v>
+        <v>130435.46</v>
+      </c>
+      <c r="N8" t="n">
+        <v>134244.96</v>
+      </c>
+      <c r="O8" t="n">
+        <v>133019.78</v>
+      </c>
+      <c r="P8" t="n">
+        <v>133530.98</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>131166.99</v>
+      </c>
+      <c r="R8" t="n">
+        <v>126259.05</v>
+      </c>
+      <c r="S8" t="n">
+        <v>128130.58</v>
+      </c>
+      <c r="T8" t="n">
+        <v>129033.24</v>
+      </c>
+      <c r="U8" t="n">
+        <v>132616.69</v>
+      </c>
+      <c r="V8" t="n">
+        <v>129873.28</v>
+      </c>
+      <c r="W8" t="n">
+        <v>129949.39</v>
+      </c>
+      <c r="X8" t="n">
+        <v>129933.82</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>131356.18</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>131497.1</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>130637.21</v>
       </c>
     </row>
   </sheetData>
